--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyworkspace\pytest_demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC7F667-AB00-4336-A9F4-439A9A7FB3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C0856D-EA82-4889-A819-DA621CB7DCE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>caseId</t>
   </si>
@@ -223,12 +223,108 @@
     <t>用户不存在</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>c05</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传公章文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.206:9000/api/v1/file/upload</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"file_type": "impression", "file_name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试公章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "user_id": "00788730734155812864"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token":"${token}"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +375,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,6 +425,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -629,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,6 +936,38 @@
         <v>34</v>
       </c>
     </row>
+    <row r="6" spans="1:16" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyworkspace\pytest_demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C0856D-EA82-4889-A819-DA621CB7DCE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCA85A8-7803-4E21-92CD-D974C3B3705D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>caseId</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/oauth/token</t>
-  </si>
-  <si>
-    <t>{"app_id":"788730441162706944","app_secret":"vtysJXstynJpIlEudO","grant_type":"client_credentials"}</t>
   </si>
   <si>
     <t>access_token</t>
@@ -134,10 +131,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{"Content-Type":"application/json","sign":"BF580E9CC1EC694BDC1936D92450C163","token":"${token}"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>{"accessToken": "accessToken\\\":\\\"(.+?)\\\",","refreshToken": "refreshToken\\\":\\\"(.+?)\\\""}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -228,63 +221,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>上传公章文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/file/upload</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"file_type": "impression", "file_name": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>测试公章</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>", "user_id": "00788730734155812864"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>file</t>
@@ -317,6 +258,151 @@
   </si>
   <si>
     <t>{"token":"${token}"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"seal_file_id":"file_id"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>c06</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加公章-正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传公章文件-正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>seal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"788730441162706944","app_secret":"vtysJXstynJpIlEudO","grant_type":"client_credentials"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json","sign":"${sign}","token":"${token}"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"file_type": "impression", "file_name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试公章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "user_id": "10788733057439518720"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "file_id": "${seal_file_id}",
+    "seal_name": "test-gongzhang",
+    "seal_type": "01",
+    "size": "40*40",
+    "user_id": "10788733057439518720",
+    "description": "exer citati onessein nonipsum"
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>c07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件-正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.206:9000/api/v1/seal/add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.206:9000/api/v1/file/download</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"fileId":"${seal_file_id}","token":"${token}"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,6 +514,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -834,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.3">
@@ -842,7 +932,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -851,129 +941,195 @@
         <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="69.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="1:16" ht="96.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="H6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="P6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="108" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>56</v>
+      <c r="F7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{77222997-23A7-4DAF-AF0C-46411E1ECB95}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{7F30720F-44A3-4100-88B9-2ECB5651A7F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyworkspace\pytest_demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCA85A8-7803-4E21-92CD-D974C3B3705D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE26D7B5-AB48-45FA-A12F-602D566C275D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>caseId</t>
   </si>
@@ -67,30 +67,12 @@
     <t>re</t>
   </si>
   <si>
-    <t>c01</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
-    <t>http://yun.choicesaas.cn/cloud/api/auth/login</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json"}</t>
-  </si>
-  <si>
     <t>json</t>
   </si>
   <si>
-    <t>{"username": "18005410350", "password": "WK123456"}</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>c02</t>
   </si>
   <si>
@@ -104,7 +86,7 @@
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/user/company/userinfo</t>
@@ -124,48 +106,27 @@
       </rPr>
       <t>son</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"Content-Type":"application/json"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"accessToken": "accessToken\\\":\\\"(.+?)\\\",","refreshToken": "refreshToken\\\":\\\"(.+?)\\\""}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>company_user_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"token":"access_token","time":"expires_in"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"user_id": "10788733057439518720"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -182,58 +143,50 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>caseName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>获取token</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>c04</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>获取企业用户信息-正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>获取企业用户信息-用户不存在</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"user_id": "10788733057439518888"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"Content-Type":"application/json","sign":"2955E5AD79CABA13A16911CF0235B4CD","token":"${token}"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户不存在</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>c05</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/file/upload</t>
   </si>
   <si>
     <t>file</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -250,43 +203,39 @@
       </rPr>
       <t>_id</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"token":"${token}"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"seal_file_id":"file_id"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>c06</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加公章-正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上传公章文件-正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -303,19 +252,19 @@
       </rPr>
       <t>_id</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"app_id":"788730441162706944","app_secret":"vtysJXstynJpIlEudO","grant_type":"client_credentials"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"Content-Type":"application/json","sign":"${sign}","token":"${token}"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -352,7 +301,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -363,65 +312,69 @@
     "user_id": "10788733057439518720",
     "description": "exer citati onessein nonipsum"
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>c07</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>下载文件-正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/seal/add</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/file/download</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"fileId":"${seal_file_id}","token":"${token}"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>png</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c03</t>
+  </si>
+  <si>
+    <t>c04</t>
+  </si>
+  <si>
+    <t>c05</t>
+  </si>
+  <si>
+    <t>c06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,11 +440,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,24 +452,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,25 +774,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="2"/>
+    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="24.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="67.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="52.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="12" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9" style="2"/>
+    <col min="11" max="11" width="6.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="2" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" customWidth="1"/>
     <col min="16" max="16" width="34.125" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
@@ -853,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -898,238 +850,208 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="69.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>63</v>
+      <c r="H3" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="6" t="s">
+      <c r="O3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="96.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="69.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="1:16" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>32</v>
+      <c r="O5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="96.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="7" t="s">
+    <row r="6" spans="1:16" ht="108" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="81" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="7" spans="1:16" ht="108" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="I7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{77222997-23A7-4DAF-AF0C-46411E1ECB95}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{7F30720F-44A3-4100-88B9-2ECB5651A7F3}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{77222997-23A7-4DAF-AF0C-46411E1ECB95}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{7F30720F-44A3-4100-88B9-2ECB5651A7F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyworkspace\pytest_demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE26D7B5-AB48-45FA-A12F-602D566C275D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A308930-A57F-4BCE-B562-7A721A24FDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/user/company/userinfo</t>
@@ -106,27 +106,27 @@
       </rPr>
       <t>son</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"Content-Type":"application/json"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>company_user_info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"token":"access_token","time":"expires_in"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"user_id": "10788733057439518720"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -143,50 +143,50 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>caseName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取token</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取企业用户信息-正常</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取企业用户信息-用户不存在</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"user_id": "10788733057439518888"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"Content-Type":"application/json","sign":"2955E5AD79CABA13A16911CF0235B4CD","token":"${token}"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用户不存在</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/file/upload</t>
   </si>
   <si>
     <t>file</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -203,39 +203,39 @@
       </rPr>
       <t>_id</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"token":"${token}"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"seal_file_id":"file_id"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>添加公章-正常</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>上传公章文件-正常</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -252,19 +252,19 @@
       </rPr>
       <t>_id</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"app_id":"788730441162706944","app_secret":"vtysJXstynJpIlEudO","grant_type":"client_credentials"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"Content-Type":"application/json","sign":"${sign}","token":"${token}"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -301,7 +301,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -312,47 +312,43 @@
     "user_id": "10788733057439518720",
     "description": "exer citati onessein nonipsum"
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>下载文件-正常</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/seal/add</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/file/download</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"fileId":"${seal_file_id}","token":"${token}"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>c01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>c03</t>
@@ -365,24 +361,20 @@
   </si>
   <si>
     <t>c06</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,13 +430,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -452,27 +441,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -776,14 +761,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9" style="2"/>
+    <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="24.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
@@ -852,7 +838,7 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -860,28 +846,28 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -889,69 +875,69 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="96.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>47</v>
@@ -962,22 +948,22 @@
       <c r="D5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="P5" s="2" t="s">
@@ -986,7 +972,7 @@
     </row>
     <row r="6" spans="1:16" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -995,63 +981,59 @@
         <v>48</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{77222997-23A7-4DAF-AF0C-46411E1ECB95}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{7F30720F-44A3-4100-88B9-2ECB5651A7F3}"/>
-  </hyperlinks>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>